--- a/corpus-builder/modified-simple.xlsx
+++ b/corpus-builder/modified-simple.xlsx
@@ -104,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,17 +113,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="FF0000"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray">
-        <fgColor rgb="FF0000"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -141,7 +136,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
